--- a/output/WHOvsOECD/DetailedOECD.xlsx
+++ b/output/WHOvsOECD/DetailedOECD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20351"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bz22\Desktop\ComparativeMortality\output\WHOvsOECD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9941421-762A-4A77-ABFA-932757CE3681}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4579764D-89D3-4F06-B1BA-DB9D72791FA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="6" activeTab="9" xr2:uid="{91A1DF1B-9860-4BA2-A032-E6F753A514E0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="9" activeTab="12" xr2:uid="{91A1DF1B-9860-4BA2-A032-E6F753A514E0}"/>
   </bookViews>
   <sheets>
     <sheet name="AllCauseTotalPopRate" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="ExternalFemaleDeaths" sheetId="9" r:id="rId10"/>
     <sheet name="ExternalMaleDeaths" sheetId="8" r:id="rId11"/>
     <sheet name="ExternalTotalDeaths" sheetId="7" r:id="rId12"/>
+    <sheet name="AllCauseMaleStdRate" sheetId="13" r:id="rId13"/>
+    <sheet name="AllCauseFemaleStdRate" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="91">
   <si>
     <t>Refresh</t>
   </si>
@@ -297,6 +299,18 @@
   </si>
   <si>
     <t>Data extracted on 21 Nov 2019 16:11 UTC (GMT) from OECD.Stat</t>
+  </si>
+  <si>
+    <t>Deaths per 100 000 females (standardised rates)</t>
+  </si>
+  <si>
+    <t>Data extracted on 22 Nov 2019 18:11 UTC (GMT) from OECD.Stat</t>
+  </si>
+  <si>
+    <t>Deaths per 100 000 males (standardised rates)</t>
+  </si>
+  <si>
+    <t>Data extracted on 22 Nov 2019 18:12 UTC (GMT) from OECD.Stat</t>
   </si>
 </sst>
 </file>
@@ -911,7 +925,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1224,6 +1238,64 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -8727,6 +8799,3512 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AllCauseMaleStdRate!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Australia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>AllCauseMaleStdRate!$B$6:$BD$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AllCauseMaleStdRate!$B$7:$BD$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>1896.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1870</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1918.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1905.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1940.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1988.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1912.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2048.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1933</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2006.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1925.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1910.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1897.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1987.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1746.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1796.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1677</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1638.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1578.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1575.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1542.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1574.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1473</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1475.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1491.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1367.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1381.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1349</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1390.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1281.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1236.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1244.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1193.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1226.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1164.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1160.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1116.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1076.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1045.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>975.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>975.6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>933.7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>924.4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>902.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>859.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>869.7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>824.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>810.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>819.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>787.4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>772</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>778.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3ED3-4855-AEA1-2934CC5911C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AllCauseMaleStdRate!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Canada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>AllCauseMaleStdRate!$B$6:$BD$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AllCauseMaleStdRate!$B$8:$BD$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>1764.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1685</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1673.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1692.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1654.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1685.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1679.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1661.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1674.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1657.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1648.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1607.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1656.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1657.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1651.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1643.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1627.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1536.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1517.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1475.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1469.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1434</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1457.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1386.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1367.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1378.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1371.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1342.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1354.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1311</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1281.7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1251.3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1203.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1211.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1184.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1168.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1173.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1156.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1141.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1046.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1028.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1010.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>977.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>925.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>913.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>895.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>865.9</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>839.6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>839.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>807.2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>813.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>809.3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>800.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3ED3-4855-AEA1-2934CC5911C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AllCauseMaleStdRate!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>United Kingdom</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>AllCauseMaleStdRate!$B$6:$BD$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AllCauseMaleStdRate!$B$9:$BD$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>1936.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2024.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2032.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2092.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1902.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1942.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1999.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1871.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1996.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1949.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1860.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1933.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1903.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1884.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1860.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1895.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1801</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1820.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1825.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1763.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1696.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1685.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1661.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1601</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1639.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1596.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1507.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1496.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1490.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1437.1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1443.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1397</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1428.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1348.9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1363.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1324.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1289.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1272.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1263.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1182.7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1170.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1160.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1097.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1027.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1005.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>990.9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>948.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>926.1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>892.6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>903.7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>903.2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>876</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3ED3-4855-AEA1-2934CC5911C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AllCauseMaleStdRate!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>United States</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>AllCauseMaleStdRate!$B$6:$BD$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AllCauseMaleStdRate!$B$10:$BD$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>1862.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1806.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1842.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1884.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1824.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1839</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1845.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1809.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1852.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1810.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1773</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1776.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1789.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1775.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1706.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1630.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1616.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1576.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1567.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1519.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1544.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1505.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1470.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1489.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1458.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1463.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1441.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1423.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1424.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1378.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1383.7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1359.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1333.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1356.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1331.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1318.9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1284.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1254.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1224.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1220.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1179.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1159.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1137.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1092.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1057</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1049.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1028.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1002.9</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>993.8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>989</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>984.6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>988.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3ED3-4855-AEA1-2934CC5911C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="966207344"/>
+        <c:axId val="840430848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="966207344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="840430848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="840430848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="966207344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AllCauseFemaleStdRate!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Australia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>AllCauseFemaleStdRate!$B$6:$BC$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AllCauseFemaleStdRate!$B$7:$BC$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>1290.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1250.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1276</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1264.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1311.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1263.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1293.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1232.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1307.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1218.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1279</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1236.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1190.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1191.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1229</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1075.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1096.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1043.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1012.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>966.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>962.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>918.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>948.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>894.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>905.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>927.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>849.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>854.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>834.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>871.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>805.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>783.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>792.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>755.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>777.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>748.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>737.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>728.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>693.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>678.7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>643.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>650.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>627.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>620.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>611.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>594.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>603.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>572.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>569.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>560.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>555.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>561</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2CFD-421D-A2A6-6DDEE4833493}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AllCauseFemaleStdRate!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Canada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>AllCauseFemaleStdRate!$B$6:$BC$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AllCauseFemaleStdRate!$B$8:$BC$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>1281.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1205.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1201.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1211.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1150.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1168.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1125.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1096.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1103.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1084.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1065.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1009.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1007.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>994.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>989.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>960.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>956.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>916</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>894</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>874.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>875.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>847.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>823.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>811.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>816.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>831.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>810.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>806.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>786.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>776.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>766.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>737.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>753.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>745.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>736.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>744.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>741.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>732.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>717.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>691.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>690.6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>678.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>665.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>630.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>631.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>603.1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>591.9</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>573.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>579.4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>637.9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>574.70000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2CFD-421D-A2A6-6DDEE4833493}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AllCauseFemaleStdRate!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>United Kingdom</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>AllCauseFemaleStdRate!$B$6:$BC$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AllCauseFemaleStdRate!$B$9:$BC$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>1319.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1363.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1346.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1373.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1239.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1252.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1277.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1197.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1277.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1247.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1232.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1179.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1220.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1208.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1193.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1171.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1202.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1138.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1145.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1149.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1106.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1067.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1067.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1046.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1011.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1040.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1010.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>968.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>967.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>974.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>933.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>923.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>896.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>925.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>876.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>891.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>874.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>865.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>859.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>862.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>819.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>819.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>828.9</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>783.4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>740.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>731.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>729.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>688.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>681.7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>658.3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>677.3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>673.7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>651.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>682.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2CFD-421D-A2A6-6DDEE4833493}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AllCauseFemaleStdRate!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>United States</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>AllCauseFemaleStdRate!$B$6:$BC$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AllCauseFemaleStdRate!$B$10:$BC$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>1276.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1235</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1257.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1272.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1230.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1226.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1224.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1187.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1211.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1181.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1144.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1101.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1090.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1044.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>978.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>972.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>939.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>936.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>906</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>930.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>907.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>887.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>893.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>898.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>890.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>885.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>891.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>868.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>860.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>849</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>837</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>859.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>851.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>855.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>850.1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>843</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>838.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>851.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>824.2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>815.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>805.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>773.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>748.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>736.2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>731.8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>711.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>704.4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>703.9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>711.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>722.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>716.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>713.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2CFD-421D-A2A6-6DDEE4833493}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="967404416"/>
+        <c:axId val="840424608"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="967404416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="840424608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="840424608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="400"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="967404416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -23884,6 +27462,86 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -26288,6 +29946,1038 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -30439,16 +35129,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>414337</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -30579,6 +35269,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A88EE083-F13C-4B3E-879B-33CC1EA60157}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5D46DEB-76C3-4196-B802-794A3CE04956}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F324980-188D-442F-8C1B-EFA15A5E76EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31226,7 +35998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81961B8B-9AF4-4203-86CA-2A1E9A993C0D}">
   <dimension ref="A1:BF13"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" workbookViewId="0">
+    <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="BA23" sqref="BA23"/>
     </sheetView>
   </sheetViews>
@@ -32735,7 +37507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C44E4C8-A772-4391-B5D4-1BD285E0F0A0}">
   <dimension ref="A1:BF13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD10"/>
     </sheetView>
   </sheetViews>
@@ -35754,7 +40526,7 @@
   <dimension ref="A1:BF13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37252,6 +42024,2890 @@
     <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=HEALTH_STAT&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
     <hyperlink ref="B3" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=HEALTH_STAT&amp;Coords=[VAR].[CICDEXTC]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
     <hyperlink ref="A11" r:id="rId3" display="https://stats-2.oecd.org/index.aspx?DatasetCode=HEALTH_STAT" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178B13B0-D2E3-4181-B9B4-C25DB796943E}">
+  <dimension ref="A1:BC13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A1" s="132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="131"/>
+      <c r="X1" s="131"/>
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="131"/>
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="131"/>
+      <c r="AD1" s="131"/>
+      <c r="AE1" s="131"/>
+      <c r="AF1" s="131"/>
+      <c r="AG1" s="131"/>
+      <c r="AH1" s="131"/>
+      <c r="AI1" s="131"/>
+      <c r="AJ1" s="131"/>
+      <c r="AK1" s="131"/>
+      <c r="AL1" s="131"/>
+      <c r="AM1" s="131"/>
+      <c r="AN1" s="131"/>
+      <c r="AO1" s="131"/>
+      <c r="AP1" s="131"/>
+      <c r="AQ1" s="131"/>
+      <c r="AR1" s="131"/>
+      <c r="AS1" s="131"/>
+      <c r="AT1" s="131"/>
+      <c r="AU1" s="131"/>
+      <c r="AV1" s="131"/>
+      <c r="AW1" s="131"/>
+      <c r="AX1" s="131"/>
+      <c r="AY1" s="131"/>
+      <c r="AZ1" s="131"/>
+      <c r="BA1" s="131"/>
+      <c r="BB1" s="131"/>
+      <c r="BC1" s="131"/>
+    </row>
+    <row r="2" spans="1:55" ht="35.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="133" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="131"/>
+      <c r="Y2" s="131"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="131"/>
+      <c r="AF2" s="131"/>
+      <c r="AG2" s="131"/>
+      <c r="AH2" s="131"/>
+      <c r="AI2" s="131"/>
+      <c r="AJ2" s="131"/>
+      <c r="AK2" s="131"/>
+      <c r="AL2" s="131"/>
+      <c r="AM2" s="131"/>
+      <c r="AN2" s="131"/>
+      <c r="AO2" s="131"/>
+      <c r="AP2" s="131"/>
+      <c r="AQ2" s="131"/>
+      <c r="AR2" s="131"/>
+      <c r="AS2" s="131"/>
+      <c r="AT2" s="131"/>
+      <c r="AU2" s="131"/>
+      <c r="AV2" s="131"/>
+      <c r="AW2" s="131"/>
+      <c r="AX2" s="131"/>
+      <c r="AY2" s="131"/>
+      <c r="AZ2" s="131"/>
+      <c r="BA2" s="131"/>
+      <c r="BB2" s="131"/>
+      <c r="BC2" s="131"/>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A3" s="134" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="116"/>
+      <c r="AG3" s="116"/>
+      <c r="AH3" s="116"/>
+      <c r="AI3" s="116"/>
+      <c r="AJ3" s="116"/>
+      <c r="AK3" s="116"/>
+      <c r="AL3" s="116"/>
+      <c r="AM3" s="116"/>
+      <c r="AN3" s="116"/>
+      <c r="AO3" s="116"/>
+      <c r="AP3" s="116"/>
+      <c r="AQ3" s="116"/>
+      <c r="AR3" s="116"/>
+      <c r="AS3" s="116"/>
+      <c r="AT3" s="116"/>
+      <c r="AU3" s="116"/>
+      <c r="AV3" s="116"/>
+      <c r="AW3" s="116"/>
+      <c r="AX3" s="116"/>
+      <c r="AY3" s="116"/>
+      <c r="AZ3" s="116"/>
+      <c r="BA3" s="116"/>
+      <c r="BB3" s="116"/>
+      <c r="BC3" s="116"/>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A4" s="134" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="118" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="119"/>
+      <c r="W4" s="119"/>
+      <c r="X4" s="119"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="119"/>
+      <c r="AA4" s="119"/>
+      <c r="AB4" s="119"/>
+      <c r="AC4" s="119"/>
+      <c r="AD4" s="119"/>
+      <c r="AE4" s="119"/>
+      <c r="AF4" s="119"/>
+      <c r="AG4" s="119"/>
+      <c r="AH4" s="119"/>
+      <c r="AI4" s="119"/>
+      <c r="AJ4" s="119"/>
+      <c r="AK4" s="119"/>
+      <c r="AL4" s="119"/>
+      <c r="AM4" s="119"/>
+      <c r="AN4" s="119"/>
+      <c r="AO4" s="119"/>
+      <c r="AP4" s="119"/>
+      <c r="AQ4" s="119"/>
+      <c r="AR4" s="119"/>
+      <c r="AS4" s="119"/>
+      <c r="AT4" s="119"/>
+      <c r="AU4" s="119"/>
+      <c r="AV4" s="119"/>
+      <c r="AW4" s="119"/>
+      <c r="AX4" s="119"/>
+      <c r="AY4" s="119"/>
+      <c r="AZ4" s="119"/>
+      <c r="BA4" s="119"/>
+      <c r="BB4" s="119"/>
+      <c r="BC4" s="119"/>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A5" s="135" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="136" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="136" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="136" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="136" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="136" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="136" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="136" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="136" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="136" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="136" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="136" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="136" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="136" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="136" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="136" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="136" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" s="136" t="s">
+        <v>24</v>
+      </c>
+      <c r="T5" s="136" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5" s="136" t="s">
+        <v>26</v>
+      </c>
+      <c r="V5" s="136" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" s="136" t="s">
+        <v>28</v>
+      </c>
+      <c r="X5" s="136" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y5" s="136" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z5" s="136" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA5" s="136" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB5" s="136" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC5" s="136" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD5" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE5" s="136" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF5" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG5" s="136" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH5" s="136" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI5" s="136" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ5" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK5" s="136" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL5" s="136" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM5" s="136" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN5" s="136" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO5" s="136" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP5" s="136" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ5" s="136" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR5" s="136" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS5" s="136" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT5" s="136" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU5" s="136" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV5" s="136" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW5" s="136" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX5" s="136" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY5" s="136" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ5" s="136" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA5" s="136" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB5" s="136" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC5" s="136" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A6" s="135"/>
+      <c r="B6" s="1">
+        <v>1960</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1961</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1962</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1963</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1964</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1965</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1966</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1967</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1968</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1969</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1970</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1971</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1972</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1973</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1974</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1975</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1976</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1977</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1978</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1979</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1980</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1981</v>
+      </c>
+      <c r="X6" s="1">
+        <v>1982</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>1983</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>1984</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>1985</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>1986</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>1987</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>1988</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>1989</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>1990</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>1991</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>1992</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>1993</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>1994</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>1995</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>1996</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>1997</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>1998</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>1999</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>2001</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>2002</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>2003</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>2004</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>2006</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>2007</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>2008</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>2009</v>
+      </c>
+      <c r="AX6" s="1">
+        <v>2010</v>
+      </c>
+      <c r="AY6" s="1">
+        <v>2011</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>2012</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>2013</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>2014</v>
+      </c>
+      <c r="BC6" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A7" s="137" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="138">
+        <v>1896.9</v>
+      </c>
+      <c r="C7" s="138">
+        <v>1870</v>
+      </c>
+      <c r="D7" s="138">
+        <v>1918.8</v>
+      </c>
+      <c r="E7" s="138">
+        <v>1905.8</v>
+      </c>
+      <c r="F7" s="138">
+        <v>1999.8</v>
+      </c>
+      <c r="G7" s="138">
+        <v>1940.4</v>
+      </c>
+      <c r="H7" s="138">
+        <v>1988.4</v>
+      </c>
+      <c r="I7" s="138">
+        <v>1912.7</v>
+      </c>
+      <c r="J7" s="138">
+        <v>2048.3000000000002</v>
+      </c>
+      <c r="K7" s="138">
+        <v>1933</v>
+      </c>
+      <c r="L7" s="138">
+        <v>2006.6</v>
+      </c>
+      <c r="M7" s="138">
+        <v>1925.7</v>
+      </c>
+      <c r="N7" s="138">
+        <v>1910.6</v>
+      </c>
+      <c r="O7" s="138">
+        <v>1897.8</v>
+      </c>
+      <c r="P7" s="138">
+        <v>1987.2</v>
+      </c>
+      <c r="Q7" s="138">
+        <v>1746.4</v>
+      </c>
+      <c r="R7" s="138">
+        <v>1796.4</v>
+      </c>
+      <c r="S7" s="138">
+        <v>1677</v>
+      </c>
+      <c r="T7" s="138">
+        <v>1638.1</v>
+      </c>
+      <c r="U7" s="138">
+        <v>1578.7</v>
+      </c>
+      <c r="V7" s="138">
+        <v>1575.8</v>
+      </c>
+      <c r="W7" s="138">
+        <v>1542.9</v>
+      </c>
+      <c r="X7" s="138">
+        <v>1574.8</v>
+      </c>
+      <c r="Y7" s="138">
+        <v>1473</v>
+      </c>
+      <c r="Z7" s="138">
+        <v>1475.9</v>
+      </c>
+      <c r="AA7" s="138">
+        <v>1491.3</v>
+      </c>
+      <c r="AB7" s="138">
+        <v>1367.2</v>
+      </c>
+      <c r="AC7" s="138">
+        <v>1381.2</v>
+      </c>
+      <c r="AD7" s="138">
+        <v>1349</v>
+      </c>
+      <c r="AE7" s="138">
+        <v>1390.6</v>
+      </c>
+      <c r="AF7" s="138">
+        <v>1281.8</v>
+      </c>
+      <c r="AG7" s="138">
+        <v>1236.7</v>
+      </c>
+      <c r="AH7" s="138">
+        <v>1244.2</v>
+      </c>
+      <c r="AI7" s="138">
+        <v>1193.7</v>
+      </c>
+      <c r="AJ7" s="138">
+        <v>1226.8</v>
+      </c>
+      <c r="AK7" s="138">
+        <v>1164.5999999999999</v>
+      </c>
+      <c r="AL7" s="138">
+        <v>1160.7</v>
+      </c>
+      <c r="AM7" s="138">
+        <v>1116.0999999999999</v>
+      </c>
+      <c r="AN7" s="138">
+        <v>1076.5999999999999</v>
+      </c>
+      <c r="AO7" s="138">
+        <v>1045.9000000000001</v>
+      </c>
+      <c r="AP7" s="138">
+        <v>975.5</v>
+      </c>
+      <c r="AQ7" s="138">
+        <v>975.6</v>
+      </c>
+      <c r="AR7" s="138">
+        <v>933.7</v>
+      </c>
+      <c r="AS7" s="138">
+        <v>924.4</v>
+      </c>
+      <c r="AT7" s="138">
+        <v>902.9</v>
+      </c>
+      <c r="AU7" s="138">
+        <v>859.9</v>
+      </c>
+      <c r="AV7" s="138">
+        <v>869.7</v>
+      </c>
+      <c r="AW7" s="138">
+        <v>824.7</v>
+      </c>
+      <c r="AX7" s="138">
+        <v>810.5</v>
+      </c>
+      <c r="AY7" s="138">
+        <v>819.5</v>
+      </c>
+      <c r="AZ7" s="138">
+        <v>787.4</v>
+      </c>
+      <c r="BA7" s="138">
+        <v>770</v>
+      </c>
+      <c r="BB7" s="138">
+        <v>772</v>
+      </c>
+      <c r="BC7" s="138">
+        <v>778.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A8" s="137" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="139">
+        <v>1764.4</v>
+      </c>
+      <c r="C8" s="139">
+        <v>1685</v>
+      </c>
+      <c r="D8" s="139">
+        <v>1673.7</v>
+      </c>
+      <c r="E8" s="139">
+        <v>1692.8</v>
+      </c>
+      <c r="F8" s="139">
+        <v>1654.4</v>
+      </c>
+      <c r="G8" s="139">
+        <v>1685.1</v>
+      </c>
+      <c r="H8" s="139">
+        <v>1679.7</v>
+      </c>
+      <c r="I8" s="139">
+        <v>1661.4</v>
+      </c>
+      <c r="J8" s="139">
+        <v>1674.6</v>
+      </c>
+      <c r="K8" s="139">
+        <v>1657.6</v>
+      </c>
+      <c r="L8" s="139">
+        <v>1648.3</v>
+      </c>
+      <c r="M8" s="139">
+        <v>1607.2</v>
+      </c>
+      <c r="N8" s="139">
+        <v>1656.3</v>
+      </c>
+      <c r="O8" s="139">
+        <v>1657.2</v>
+      </c>
+      <c r="P8" s="139">
+        <v>1651.2</v>
+      </c>
+      <c r="Q8" s="139">
+        <v>1643.8</v>
+      </c>
+      <c r="R8" s="139">
+        <v>1627.9</v>
+      </c>
+      <c r="S8" s="139">
+        <v>1536.2</v>
+      </c>
+      <c r="T8" s="139">
+        <v>1517.2</v>
+      </c>
+      <c r="U8" s="139">
+        <v>1475.4</v>
+      </c>
+      <c r="V8" s="139">
+        <v>1469.4</v>
+      </c>
+      <c r="W8" s="139">
+        <v>1434</v>
+      </c>
+      <c r="X8" s="139">
+        <v>1457.7</v>
+      </c>
+      <c r="Y8" s="139">
+        <v>1386.5</v>
+      </c>
+      <c r="Z8" s="139">
+        <v>1367.5</v>
+      </c>
+      <c r="AA8" s="139">
+        <v>1378.2</v>
+      </c>
+      <c r="AB8" s="139">
+        <v>1371.6</v>
+      </c>
+      <c r="AC8" s="139">
+        <v>1342.3</v>
+      </c>
+      <c r="AD8" s="139">
+        <v>1354.8</v>
+      </c>
+      <c r="AE8" s="139">
+        <v>1311</v>
+      </c>
+      <c r="AF8" s="139">
+        <v>1281.7</v>
+      </c>
+      <c r="AG8" s="139">
+        <v>1251.3</v>
+      </c>
+      <c r="AH8" s="139">
+        <v>1203.5</v>
+      </c>
+      <c r="AI8" s="139">
+        <v>1211.0999999999999</v>
+      </c>
+      <c r="AJ8" s="139">
+        <v>1184.5</v>
+      </c>
+      <c r="AK8" s="139">
+        <v>1168.7</v>
+      </c>
+      <c r="AL8" s="139">
+        <v>1173.4000000000001</v>
+      </c>
+      <c r="AM8" s="139">
+        <v>1156.8</v>
+      </c>
+      <c r="AN8" s="139">
+        <v>1141.5999999999999</v>
+      </c>
+      <c r="AO8" s="139">
+        <v>1120</v>
+      </c>
+      <c r="AP8" s="139">
+        <v>1046.3</v>
+      </c>
+      <c r="AQ8" s="139">
+        <v>1028.0999999999999</v>
+      </c>
+      <c r="AR8" s="139">
+        <v>1010.8</v>
+      </c>
+      <c r="AS8" s="139">
+        <v>977.3</v>
+      </c>
+      <c r="AT8" s="139">
+        <v>925.8</v>
+      </c>
+      <c r="AU8" s="139">
+        <v>913.5</v>
+      </c>
+      <c r="AV8" s="139">
+        <v>895.5</v>
+      </c>
+      <c r="AW8" s="139">
+        <v>865.9</v>
+      </c>
+      <c r="AX8" s="139">
+        <v>839.6</v>
+      </c>
+      <c r="AY8" s="139">
+        <v>839.2</v>
+      </c>
+      <c r="AZ8" s="139">
+        <v>807.2</v>
+      </c>
+      <c r="BA8" s="139">
+        <v>813.5</v>
+      </c>
+      <c r="BB8" s="139">
+        <v>809.3</v>
+      </c>
+      <c r="BC8" s="139">
+        <v>800.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="137" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="138">
+        <v>1936.4</v>
+      </c>
+      <c r="C9" s="138">
+        <v>2024.6</v>
+      </c>
+      <c r="D9" s="138">
+        <v>2032.3</v>
+      </c>
+      <c r="E9" s="138">
+        <v>2092.6999999999998</v>
+      </c>
+      <c r="F9" s="138">
+        <v>1902.2</v>
+      </c>
+      <c r="G9" s="138">
+        <v>1942.8</v>
+      </c>
+      <c r="H9" s="138">
+        <v>1999.9</v>
+      </c>
+      <c r="I9" s="138">
+        <v>1871.4</v>
+      </c>
+      <c r="J9" s="138">
+        <v>1996.2</v>
+      </c>
+      <c r="K9" s="138">
+        <v>1971</v>
+      </c>
+      <c r="L9" s="138">
+        <v>1949.2</v>
+      </c>
+      <c r="M9" s="138">
+        <v>1860.4</v>
+      </c>
+      <c r="N9" s="138">
+        <v>1933.9</v>
+      </c>
+      <c r="O9" s="138">
+        <v>1903.5</v>
+      </c>
+      <c r="P9" s="138">
+        <v>1884.3</v>
+      </c>
+      <c r="Q9" s="138">
+        <v>1860.5</v>
+      </c>
+      <c r="R9" s="138">
+        <v>1895.4</v>
+      </c>
+      <c r="S9" s="138">
+        <v>1801</v>
+      </c>
+      <c r="T9" s="138">
+        <v>1820.5</v>
+      </c>
+      <c r="U9" s="138">
+        <v>1825.9</v>
+      </c>
+      <c r="V9" s="138">
+        <v>1763.7</v>
+      </c>
+      <c r="W9" s="138">
+        <v>1696.2</v>
+      </c>
+      <c r="X9" s="138">
+        <v>1685.8</v>
+      </c>
+      <c r="Y9" s="138">
+        <v>1661.6</v>
+      </c>
+      <c r="Z9" s="138">
+        <v>1601</v>
+      </c>
+      <c r="AA9" s="138">
+        <v>1639.9</v>
+      </c>
+      <c r="AB9" s="138">
+        <v>1596.7</v>
+      </c>
+      <c r="AC9" s="138">
+        <v>1507.6</v>
+      </c>
+      <c r="AD9" s="138">
+        <v>1496.2</v>
+      </c>
+      <c r="AE9" s="138">
+        <v>1490.3</v>
+      </c>
+      <c r="AF9" s="138">
+        <v>1437.1</v>
+      </c>
+      <c r="AG9" s="138">
+        <v>1443.6</v>
+      </c>
+      <c r="AH9" s="138">
+        <v>1397</v>
+      </c>
+      <c r="AI9" s="138">
+        <v>1428.1</v>
+      </c>
+      <c r="AJ9" s="138">
+        <v>1348.9</v>
+      </c>
+      <c r="AK9" s="138">
+        <v>1363.3</v>
+      </c>
+      <c r="AL9" s="138">
+        <v>1324.6</v>
+      </c>
+      <c r="AM9" s="138">
+        <v>1289.5</v>
+      </c>
+      <c r="AN9" s="138">
+        <v>1272.9000000000001</v>
+      </c>
+      <c r="AO9" s="138">
+        <v>1263.0999999999999</v>
+      </c>
+      <c r="AP9" s="138">
+        <v>1182.7</v>
+      </c>
+      <c r="AQ9" s="138">
+        <v>1170.0999999999999</v>
+      </c>
+      <c r="AR9" s="138">
+        <v>1160.4000000000001</v>
+      </c>
+      <c r="AS9" s="138">
+        <v>1097.0999999999999</v>
+      </c>
+      <c r="AT9" s="138">
+        <v>1027.2</v>
+      </c>
+      <c r="AU9" s="138">
+        <v>1005.8</v>
+      </c>
+      <c r="AV9" s="138">
+        <v>990.9</v>
+      </c>
+      <c r="AW9" s="138">
+        <v>948.5</v>
+      </c>
+      <c r="AX9" s="138">
+        <v>926.1</v>
+      </c>
+      <c r="AY9" s="138">
+        <v>892.6</v>
+      </c>
+      <c r="AZ9" s="138">
+        <v>903.7</v>
+      </c>
+      <c r="BA9" s="138">
+        <v>903.2</v>
+      </c>
+      <c r="BB9" s="138">
+        <v>876</v>
+      </c>
+      <c r="BC9" s="138">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="137" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="139">
+        <v>1862.6</v>
+      </c>
+      <c r="C10" s="139">
+        <v>1806.8</v>
+      </c>
+      <c r="D10" s="139">
+        <v>1842.9</v>
+      </c>
+      <c r="E10" s="139">
+        <v>1884.4</v>
+      </c>
+      <c r="F10" s="139">
+        <v>1824.5</v>
+      </c>
+      <c r="G10" s="139">
+        <v>1839</v>
+      </c>
+      <c r="H10" s="139">
+        <v>1845.5</v>
+      </c>
+      <c r="I10" s="139">
+        <v>1809.4</v>
+      </c>
+      <c r="J10" s="139">
+        <v>1852.6</v>
+      </c>
+      <c r="K10" s="139">
+        <v>1810.8</v>
+      </c>
+      <c r="L10" s="139">
+        <v>1773</v>
+      </c>
+      <c r="M10" s="139">
+        <v>1776.6</v>
+      </c>
+      <c r="N10" s="139">
+        <v>1789.1</v>
+      </c>
+      <c r="O10" s="139">
+        <v>1775.2</v>
+      </c>
+      <c r="P10" s="139">
+        <v>1706.8</v>
+      </c>
+      <c r="Q10" s="139">
+        <v>1630.8</v>
+      </c>
+      <c r="R10" s="139">
+        <v>1616.7</v>
+      </c>
+      <c r="S10" s="139">
+        <v>1576.5</v>
+      </c>
+      <c r="T10" s="139">
+        <v>1567.4</v>
+      </c>
+      <c r="U10" s="139">
+        <v>1519.6</v>
+      </c>
+      <c r="V10" s="139">
+        <v>1544.6</v>
+      </c>
+      <c r="W10" s="139">
+        <v>1505.4</v>
+      </c>
+      <c r="X10" s="139">
+        <v>1470.8</v>
+      </c>
+      <c r="Y10" s="139">
+        <v>1489.4</v>
+      </c>
+      <c r="Z10" s="139">
+        <v>1458.4</v>
+      </c>
+      <c r="AA10" s="139">
+        <v>1463.4</v>
+      </c>
+      <c r="AB10" s="139">
+        <v>1441.8</v>
+      </c>
+      <c r="AC10" s="139">
+        <v>1423.7</v>
+      </c>
+      <c r="AD10" s="139">
+        <v>1424.1</v>
+      </c>
+      <c r="AE10" s="139">
+        <v>1378.2</v>
+      </c>
+      <c r="AF10" s="139">
+        <v>1383.7</v>
+      </c>
+      <c r="AG10" s="139">
+        <v>1359.2</v>
+      </c>
+      <c r="AH10" s="139">
+        <v>1333.6</v>
+      </c>
+      <c r="AI10" s="139">
+        <v>1356.5</v>
+      </c>
+      <c r="AJ10" s="139">
+        <v>1331.8</v>
+      </c>
+      <c r="AK10" s="139">
+        <v>1318.9</v>
+      </c>
+      <c r="AL10" s="139">
+        <v>1284.7</v>
+      </c>
+      <c r="AM10" s="139">
+        <v>1254.9000000000001</v>
+      </c>
+      <c r="AN10" s="139">
+        <v>1224.8</v>
+      </c>
+      <c r="AO10" s="139">
+        <v>1220.4000000000001</v>
+      </c>
+      <c r="AP10" s="139">
+        <v>1179.0999999999999</v>
+      </c>
+      <c r="AQ10" s="139">
+        <v>1159.9000000000001</v>
+      </c>
+      <c r="AR10" s="139">
+        <v>1137.5999999999999</v>
+      </c>
+      <c r="AS10" s="139">
+        <v>1092.7</v>
+      </c>
+      <c r="AT10" s="139">
+        <v>1057</v>
+      </c>
+      <c r="AU10" s="139">
+        <v>1049.9000000000001</v>
+      </c>
+      <c r="AV10" s="139">
+        <v>1028.5</v>
+      </c>
+      <c r="AW10" s="139">
+        <v>1015</v>
+      </c>
+      <c r="AX10" s="139">
+        <v>1002.9</v>
+      </c>
+      <c r="AY10" s="139">
+        <v>993.8</v>
+      </c>
+      <c r="AZ10" s="139">
+        <v>989</v>
+      </c>
+      <c r="BA10" s="139">
+        <v>990</v>
+      </c>
+      <c r="BB10" s="139">
+        <v>984.6</v>
+      </c>
+      <c r="BC10" s="139">
+        <v>988.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A11" s="140" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="131"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="131"/>
+      <c r="M11" s="131"/>
+      <c r="N11" s="131"/>
+      <c r="O11" s="131"/>
+      <c r="P11" s="131"/>
+      <c r="Q11" s="131"/>
+      <c r="R11" s="131"/>
+      <c r="S11" s="131"/>
+      <c r="T11" s="131"/>
+      <c r="U11" s="131"/>
+      <c r="V11" s="131"/>
+      <c r="W11" s="131"/>
+      <c r="X11" s="131"/>
+      <c r="Y11" s="131"/>
+      <c r="Z11" s="131"/>
+      <c r="AA11" s="131"/>
+      <c r="AB11" s="131"/>
+      <c r="AC11" s="131"/>
+      <c r="AD11" s="131"/>
+      <c r="AE11" s="131"/>
+      <c r="AF11" s="131"/>
+      <c r="AG11" s="131"/>
+      <c r="AH11" s="131"/>
+      <c r="AI11" s="131"/>
+      <c r="AJ11" s="131"/>
+      <c r="AK11" s="131"/>
+      <c r="AL11" s="131"/>
+      <c r="AM11" s="131"/>
+      <c r="AN11" s="131"/>
+      <c r="AO11" s="131"/>
+      <c r="AP11" s="131"/>
+      <c r="AQ11" s="131"/>
+      <c r="AR11" s="131"/>
+      <c r="AS11" s="131"/>
+      <c r="AT11" s="131"/>
+      <c r="AU11" s="131"/>
+      <c r="AV11" s="131"/>
+      <c r="AW11" s="131"/>
+      <c r="AX11" s="131"/>
+      <c r="AY11" s="131"/>
+      <c r="AZ11" s="131"/>
+      <c r="BA11" s="131"/>
+      <c r="BB11" s="131"/>
+      <c r="BC11" s="131"/>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A12" s="141" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="131"/>
+      <c r="M12" s="131"/>
+      <c r="N12" s="131"/>
+      <c r="O12" s="131"/>
+      <c r="P12" s="131"/>
+      <c r="Q12" s="131"/>
+      <c r="R12" s="131"/>
+      <c r="S12" s="131"/>
+      <c r="T12" s="131"/>
+      <c r="U12" s="131"/>
+      <c r="V12" s="131"/>
+      <c r="W12" s="131"/>
+      <c r="X12" s="131"/>
+      <c r="Y12" s="131"/>
+      <c r="Z12" s="131"/>
+      <c r="AA12" s="131"/>
+      <c r="AB12" s="131"/>
+      <c r="AC12" s="131"/>
+      <c r="AD12" s="131"/>
+      <c r="AE12" s="131"/>
+      <c r="AF12" s="131"/>
+      <c r="AG12" s="131"/>
+      <c r="AH12" s="131"/>
+      <c r="AI12" s="131"/>
+      <c r="AJ12" s="131"/>
+      <c r="AK12" s="131"/>
+      <c r="AL12" s="131"/>
+      <c r="AM12" s="131"/>
+      <c r="AN12" s="131"/>
+      <c r="AO12" s="131"/>
+      <c r="AP12" s="131"/>
+      <c r="AQ12" s="131"/>
+      <c r="AR12" s="131"/>
+      <c r="AS12" s="131"/>
+      <c r="AT12" s="131"/>
+      <c r="AU12" s="131"/>
+      <c r="AV12" s="131"/>
+      <c r="AW12" s="131"/>
+      <c r="AX12" s="131"/>
+      <c r="AY12" s="131"/>
+      <c r="AZ12" s="131"/>
+      <c r="BA12" s="131"/>
+      <c r="BB12" s="131"/>
+      <c r="BC12" s="131"/>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A13" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="131"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="131"/>
+      <c r="L13" s="131"/>
+      <c r="M13" s="131"/>
+      <c r="N13" s="131"/>
+      <c r="O13" s="131"/>
+      <c r="P13" s="131"/>
+      <c r="Q13" s="131"/>
+      <c r="R13" s="131"/>
+      <c r="S13" s="131"/>
+      <c r="T13" s="131"/>
+      <c r="U13" s="131"/>
+      <c r="V13" s="131"/>
+      <c r="W13" s="131"/>
+      <c r="X13" s="131"/>
+      <c r="Y13" s="131"/>
+      <c r="Z13" s="131"/>
+      <c r="AA13" s="131"/>
+      <c r="AB13" s="131"/>
+      <c r="AC13" s="131"/>
+      <c r="AD13" s="131"/>
+      <c r="AE13" s="131"/>
+      <c r="AF13" s="131"/>
+      <c r="AG13" s="131"/>
+      <c r="AH13" s="131"/>
+      <c r="AI13" s="131"/>
+      <c r="AJ13" s="131"/>
+      <c r="AK13" s="131"/>
+      <c r="AL13" s="131"/>
+      <c r="AM13" s="131"/>
+      <c r="AN13" s="131"/>
+      <c r="AO13" s="131"/>
+      <c r="AP13" s="131"/>
+      <c r="AQ13" s="131"/>
+      <c r="AR13" s="131"/>
+      <c r="AS13" s="131"/>
+      <c r="AT13" s="131"/>
+      <c r="AU13" s="131"/>
+      <c r="AV13" s="131"/>
+      <c r="AW13" s="131"/>
+      <c r="AX13" s="131"/>
+      <c r="AY13" s="131"/>
+      <c r="AZ13" s="131"/>
+      <c r="BA13" s="131"/>
+      <c r="BB13" s="131"/>
+      <c r="BC13" s="131"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:BC3"/>
+    <mergeCell ref="B4:BC4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=HEALTH_STAT&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=HEALTH_STAT&amp;Coords=[VAR].[CICDALLC]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
+    <hyperlink ref="A11" r:id="rId3" display="https://stats-1.oecd.org/index.aspx?DatasetCode=HEALTH_STAT" xr:uid="{00000000-0004-0000-0C00-000002000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A90301-B853-46DD-B9ED-36306FF5E4CC}">
+  <dimension ref="A1:BC13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AO36" sqref="AO36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A1" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="121"/>
+      <c r="T1" s="121"/>
+      <c r="U1" s="121"/>
+      <c r="V1" s="121"/>
+      <c r="W1" s="121"/>
+      <c r="X1" s="121"/>
+      <c r="Y1" s="121"/>
+      <c r="Z1" s="121"/>
+      <c r="AA1" s="121"/>
+      <c r="AB1" s="121"/>
+      <c r="AC1" s="121"/>
+      <c r="AD1" s="121"/>
+      <c r="AE1" s="121"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="121"/>
+      <c r="AH1" s="121"/>
+      <c r="AI1" s="121"/>
+      <c r="AJ1" s="121"/>
+      <c r="AK1" s="121"/>
+      <c r="AL1" s="121"/>
+      <c r="AM1" s="121"/>
+      <c r="AN1" s="121"/>
+      <c r="AO1" s="121"/>
+      <c r="AP1" s="121"/>
+      <c r="AQ1" s="121"/>
+      <c r="AR1" s="121"/>
+      <c r="AS1" s="121"/>
+      <c r="AT1" s="121"/>
+      <c r="AU1" s="121"/>
+      <c r="AV1" s="121"/>
+      <c r="AW1" s="121"/>
+      <c r="AX1" s="121"/>
+      <c r="AY1" s="121"/>
+      <c r="AZ1" s="121"/>
+      <c r="BA1" s="121"/>
+      <c r="BB1" s="121"/>
+      <c r="BC1" s="121"/>
+    </row>
+    <row r="2" spans="1:55" ht="35.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="121"/>
+      <c r="AB2" s="121"/>
+      <c r="AC2" s="121"/>
+      <c r="AD2" s="121"/>
+      <c r="AE2" s="121"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="121"/>
+      <c r="AH2" s="121"/>
+      <c r="AI2" s="121"/>
+      <c r="AJ2" s="121"/>
+      <c r="AK2" s="121"/>
+      <c r="AL2" s="121"/>
+      <c r="AM2" s="121"/>
+      <c r="AN2" s="121"/>
+      <c r="AO2" s="121"/>
+      <c r="AP2" s="121"/>
+      <c r="AQ2" s="121"/>
+      <c r="AR2" s="121"/>
+      <c r="AS2" s="121"/>
+      <c r="AT2" s="121"/>
+      <c r="AU2" s="121"/>
+      <c r="AV2" s="121"/>
+      <c r="AW2" s="121"/>
+      <c r="AX2" s="121"/>
+      <c r="AY2" s="121"/>
+      <c r="AZ2" s="121"/>
+      <c r="BA2" s="121"/>
+      <c r="BB2" s="121"/>
+      <c r="BC2" s="121"/>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A3" s="134" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="116"/>
+      <c r="AG3" s="116"/>
+      <c r="AH3" s="116"/>
+      <c r="AI3" s="116"/>
+      <c r="AJ3" s="116"/>
+      <c r="AK3" s="116"/>
+      <c r="AL3" s="116"/>
+      <c r="AM3" s="116"/>
+      <c r="AN3" s="116"/>
+      <c r="AO3" s="116"/>
+      <c r="AP3" s="116"/>
+      <c r="AQ3" s="116"/>
+      <c r="AR3" s="116"/>
+      <c r="AS3" s="116"/>
+      <c r="AT3" s="116"/>
+      <c r="AU3" s="116"/>
+      <c r="AV3" s="116"/>
+      <c r="AW3" s="116"/>
+      <c r="AX3" s="116"/>
+      <c r="AY3" s="116"/>
+      <c r="AZ3" s="116"/>
+      <c r="BA3" s="116"/>
+      <c r="BB3" s="116"/>
+      <c r="BC3" s="116"/>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A4" s="134" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="119"/>
+      <c r="W4" s="119"/>
+      <c r="X4" s="119"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="119"/>
+      <c r="AA4" s="119"/>
+      <c r="AB4" s="119"/>
+      <c r="AC4" s="119"/>
+      <c r="AD4" s="119"/>
+      <c r="AE4" s="119"/>
+      <c r="AF4" s="119"/>
+      <c r="AG4" s="119"/>
+      <c r="AH4" s="119"/>
+      <c r="AI4" s="119"/>
+      <c r="AJ4" s="119"/>
+      <c r="AK4" s="119"/>
+      <c r="AL4" s="119"/>
+      <c r="AM4" s="119"/>
+      <c r="AN4" s="119"/>
+      <c r="AO4" s="119"/>
+      <c r="AP4" s="119"/>
+      <c r="AQ4" s="119"/>
+      <c r="AR4" s="119"/>
+      <c r="AS4" s="119"/>
+      <c r="AT4" s="119"/>
+      <c r="AU4" s="119"/>
+      <c r="AV4" s="119"/>
+      <c r="AW4" s="119"/>
+      <c r="AX4" s="119"/>
+      <c r="AY4" s="119"/>
+      <c r="AZ4" s="119"/>
+      <c r="BA4" s="119"/>
+      <c r="BB4" s="119"/>
+      <c r="BC4" s="119"/>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A5" s="135" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="124" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="124" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="124" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="124" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="124" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="124" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="124" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="124" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="124" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="T5" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5" s="124" t="s">
+        <v>26</v>
+      </c>
+      <c r="V5" s="124" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" s="124" t="s">
+        <v>28</v>
+      </c>
+      <c r="X5" s="124" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y5" s="124" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z5" s="124" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA5" s="124" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB5" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC5" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD5" s="124" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE5" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF5" s="124" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG5" s="124" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH5" s="124" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI5" s="124" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ5" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK5" s="124" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL5" s="124" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM5" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN5" s="124" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO5" s="124" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP5" s="124" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ5" s="124" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR5" s="124" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS5" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT5" s="124" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU5" s="124" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV5" s="124" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW5" s="124" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX5" s="124" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY5" s="124" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ5" s="124" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA5" s="124" t="s">
+        <v>60</v>
+      </c>
+      <c r="BB5" s="124" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC5" s="124" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A6" s="135"/>
+      <c r="B6" s="1">
+        <v>1960</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1961</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1962</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1963</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1964</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1965</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1966</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1967</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1968</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1969</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1970</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1971</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1972</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1973</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1974</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1975</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1976</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1977</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1978</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1979</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1980</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1981</v>
+      </c>
+      <c r="X6" s="1">
+        <v>1982</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>1983</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>1984</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>1985</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>1986</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>1987</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>1988</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>1989</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>1990</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>1991</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>1992</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>1993</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>1994</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>1995</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>1996</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>1997</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>1998</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>1999</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>2001</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>2002</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>2003</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>2004</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>2006</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>2007</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>2008</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>2009</v>
+      </c>
+      <c r="AX6" s="1">
+        <v>2010</v>
+      </c>
+      <c r="AY6" s="1">
+        <v>2011</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>2012</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>2013</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>2014</v>
+      </c>
+      <c r="BC6" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A7" s="125" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="126">
+        <v>1290.4000000000001</v>
+      </c>
+      <c r="C7" s="126">
+        <v>1250.4000000000001</v>
+      </c>
+      <c r="D7" s="126">
+        <v>1276</v>
+      </c>
+      <c r="E7" s="126">
+        <v>1264.8</v>
+      </c>
+      <c r="F7" s="126">
+        <v>1311.6</v>
+      </c>
+      <c r="G7" s="126">
+        <v>1263.8</v>
+      </c>
+      <c r="H7" s="126">
+        <v>1293.3</v>
+      </c>
+      <c r="I7" s="126">
+        <v>1232.0999999999999</v>
+      </c>
+      <c r="J7" s="126">
+        <v>1307.2</v>
+      </c>
+      <c r="K7" s="126">
+        <v>1218.0999999999999</v>
+      </c>
+      <c r="L7" s="126">
+        <v>1279</v>
+      </c>
+      <c r="M7" s="126">
+        <v>1236.0999999999999</v>
+      </c>
+      <c r="N7" s="126">
+        <v>1190.5999999999999</v>
+      </c>
+      <c r="O7" s="126">
+        <v>1191.5999999999999</v>
+      </c>
+      <c r="P7" s="126">
+        <v>1229</v>
+      </c>
+      <c r="Q7" s="126">
+        <v>1075.9000000000001</v>
+      </c>
+      <c r="R7" s="126">
+        <v>1096.2</v>
+      </c>
+      <c r="S7" s="126">
+        <v>1043.4000000000001</v>
+      </c>
+      <c r="T7" s="126">
+        <v>1012.7</v>
+      </c>
+      <c r="U7" s="126">
+        <v>966.4</v>
+      </c>
+      <c r="V7" s="126">
+        <v>962.5</v>
+      </c>
+      <c r="W7" s="126">
+        <v>918.8</v>
+      </c>
+      <c r="X7" s="126">
+        <v>948.3</v>
+      </c>
+      <c r="Y7" s="126">
+        <v>894.3</v>
+      </c>
+      <c r="Z7" s="126">
+        <v>905.6</v>
+      </c>
+      <c r="AA7" s="126">
+        <v>927.7</v>
+      </c>
+      <c r="AB7" s="126">
+        <v>849.6</v>
+      </c>
+      <c r="AC7" s="126">
+        <v>854.9</v>
+      </c>
+      <c r="AD7" s="126">
+        <v>834.7</v>
+      </c>
+      <c r="AE7" s="126">
+        <v>871.3</v>
+      </c>
+      <c r="AF7" s="126">
+        <v>805.6</v>
+      </c>
+      <c r="AG7" s="126">
+        <v>783.1</v>
+      </c>
+      <c r="AH7" s="126">
+        <v>792.1</v>
+      </c>
+      <c r="AI7" s="126">
+        <v>755.2</v>
+      </c>
+      <c r="AJ7" s="126">
+        <v>777.6</v>
+      </c>
+      <c r="AK7" s="126">
+        <v>748.5</v>
+      </c>
+      <c r="AL7" s="126">
+        <v>737.5</v>
+      </c>
+      <c r="AM7" s="126">
+        <v>728.3</v>
+      </c>
+      <c r="AN7" s="126">
+        <v>693.8</v>
+      </c>
+      <c r="AO7" s="126">
+        <v>678.7</v>
+      </c>
+      <c r="AP7" s="126">
+        <v>643.70000000000005</v>
+      </c>
+      <c r="AQ7" s="126">
+        <v>650.29999999999995</v>
+      </c>
+      <c r="AR7" s="126">
+        <v>627.79999999999995</v>
+      </c>
+      <c r="AS7" s="126">
+        <v>620.5</v>
+      </c>
+      <c r="AT7" s="126">
+        <v>611.20000000000005</v>
+      </c>
+      <c r="AU7" s="126">
+        <v>594.20000000000005</v>
+      </c>
+      <c r="AV7" s="126">
+        <v>603.79999999999995</v>
+      </c>
+      <c r="AW7" s="126">
+        <v>572.4</v>
+      </c>
+      <c r="AX7" s="126">
+        <v>568</v>
+      </c>
+      <c r="AY7" s="126">
+        <v>569.70000000000005</v>
+      </c>
+      <c r="AZ7" s="126">
+        <v>560.29999999999995</v>
+      </c>
+      <c r="BA7" s="126">
+        <v>544</v>
+      </c>
+      <c r="BB7" s="126">
+        <v>555.70000000000005</v>
+      </c>
+      <c r="BC7" s="126">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A8" s="125" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="127">
+        <v>1281.8</v>
+      </c>
+      <c r="C8" s="127">
+        <v>1205.3</v>
+      </c>
+      <c r="D8" s="127">
+        <v>1201.3</v>
+      </c>
+      <c r="E8" s="127">
+        <v>1211.0999999999999</v>
+      </c>
+      <c r="F8" s="127">
+        <v>1150.7</v>
+      </c>
+      <c r="G8" s="127">
+        <v>1168.9000000000001</v>
+      </c>
+      <c r="H8" s="127">
+        <v>1125.0999999999999</v>
+      </c>
+      <c r="I8" s="127">
+        <v>1096.5</v>
+      </c>
+      <c r="J8" s="127">
+        <v>1103.7</v>
+      </c>
+      <c r="K8" s="127">
+        <v>1084.8</v>
+      </c>
+      <c r="L8" s="127">
+        <v>1065.0999999999999</v>
+      </c>
+      <c r="M8" s="127">
+        <v>1009.3</v>
+      </c>
+      <c r="N8" s="127">
+        <v>1007.8</v>
+      </c>
+      <c r="O8" s="127">
+        <v>994.2</v>
+      </c>
+      <c r="P8" s="127">
+        <v>989.8</v>
+      </c>
+      <c r="Q8" s="127">
+        <v>960.7</v>
+      </c>
+      <c r="R8" s="127">
+        <v>956.6</v>
+      </c>
+      <c r="S8" s="127">
+        <v>916</v>
+      </c>
+      <c r="T8" s="127">
+        <v>894</v>
+      </c>
+      <c r="U8" s="127">
+        <v>874.9</v>
+      </c>
+      <c r="V8" s="127">
+        <v>875.8</v>
+      </c>
+      <c r="W8" s="127">
+        <v>847.7</v>
+      </c>
+      <c r="X8" s="127">
+        <v>888</v>
+      </c>
+      <c r="Y8" s="127">
+        <v>823.4</v>
+      </c>
+      <c r="Z8" s="127">
+        <v>811.1</v>
+      </c>
+      <c r="AA8" s="127">
+        <v>816.4</v>
+      </c>
+      <c r="AB8" s="127">
+        <v>831.1</v>
+      </c>
+      <c r="AC8" s="127">
+        <v>810.8</v>
+      </c>
+      <c r="AD8" s="127">
+        <v>806.7</v>
+      </c>
+      <c r="AE8" s="127">
+        <v>786.8</v>
+      </c>
+      <c r="AF8" s="127">
+        <v>776.4</v>
+      </c>
+      <c r="AG8" s="127">
+        <v>766.7</v>
+      </c>
+      <c r="AH8" s="127">
+        <v>737.1</v>
+      </c>
+      <c r="AI8" s="127">
+        <v>753.3</v>
+      </c>
+      <c r="AJ8" s="127">
+        <v>745.3</v>
+      </c>
+      <c r="AK8" s="127">
+        <v>736.2</v>
+      </c>
+      <c r="AL8" s="127">
+        <v>744.8</v>
+      </c>
+      <c r="AM8" s="127">
+        <v>741.7</v>
+      </c>
+      <c r="AN8" s="127">
+        <v>732.2</v>
+      </c>
+      <c r="AO8" s="127">
+        <v>717.1</v>
+      </c>
+      <c r="AP8" s="127">
+        <v>691.8</v>
+      </c>
+      <c r="AQ8" s="127">
+        <v>690.6</v>
+      </c>
+      <c r="AR8" s="127">
+        <v>678.5</v>
+      </c>
+      <c r="AS8" s="127">
+        <v>665.3</v>
+      </c>
+      <c r="AT8" s="127">
+        <v>630.5</v>
+      </c>
+      <c r="AU8" s="127">
+        <v>631.20000000000005</v>
+      </c>
+      <c r="AV8" s="127">
+        <v>620</v>
+      </c>
+      <c r="AW8" s="127">
+        <v>603.1</v>
+      </c>
+      <c r="AX8" s="127">
+        <v>591.9</v>
+      </c>
+      <c r="AY8" s="127">
+        <v>591</v>
+      </c>
+      <c r="AZ8" s="127">
+        <v>573.5</v>
+      </c>
+      <c r="BA8" s="127">
+        <v>579.4</v>
+      </c>
+      <c r="BB8" s="127">
+        <v>637.9</v>
+      </c>
+      <c r="BC8" s="127">
+        <v>574.70000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="125" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="126">
+        <v>1319.2</v>
+      </c>
+      <c r="C9" s="126">
+        <v>1363.5</v>
+      </c>
+      <c r="D9" s="126">
+        <v>1346.9</v>
+      </c>
+      <c r="E9" s="126">
+        <v>1373.5</v>
+      </c>
+      <c r="F9" s="126">
+        <v>1239.5</v>
+      </c>
+      <c r="G9" s="126">
+        <v>1252.9000000000001</v>
+      </c>
+      <c r="H9" s="126">
+        <v>1277.3</v>
+      </c>
+      <c r="I9" s="126">
+        <v>1197.9000000000001</v>
+      </c>
+      <c r="J9" s="126">
+        <v>1277.9000000000001</v>
+      </c>
+      <c r="K9" s="126">
+        <v>1247.0999999999999</v>
+      </c>
+      <c r="L9" s="126">
+        <v>1232.2</v>
+      </c>
+      <c r="M9" s="126">
+        <v>1179.5999999999999</v>
+      </c>
+      <c r="N9" s="126">
+        <v>1220.4000000000001</v>
+      </c>
+      <c r="O9" s="126">
+        <v>1208.9000000000001</v>
+      </c>
+      <c r="P9" s="126">
+        <v>1193.3</v>
+      </c>
+      <c r="Q9" s="126">
+        <v>1171.4000000000001</v>
+      </c>
+      <c r="R9" s="126">
+        <v>1202.2</v>
+      </c>
+      <c r="S9" s="126">
+        <v>1138.9000000000001</v>
+      </c>
+      <c r="T9" s="126">
+        <v>1145.4000000000001</v>
+      </c>
+      <c r="U9" s="126">
+        <v>1149.9000000000001</v>
+      </c>
+      <c r="V9" s="126">
+        <v>1106.7</v>
+      </c>
+      <c r="W9" s="126">
+        <v>1067.8</v>
+      </c>
+      <c r="X9" s="126">
+        <v>1067.4000000000001</v>
+      </c>
+      <c r="Y9" s="126">
+        <v>1046.0999999999999</v>
+      </c>
+      <c r="Z9" s="126">
+        <v>1011.2</v>
+      </c>
+      <c r="AA9" s="126">
+        <v>1040.9000000000001</v>
+      </c>
+      <c r="AB9" s="126">
+        <v>1010.4</v>
+      </c>
+      <c r="AC9" s="126">
+        <v>968.5</v>
+      </c>
+      <c r="AD9" s="126">
+        <v>967.8</v>
+      </c>
+      <c r="AE9" s="126">
+        <v>974.3</v>
+      </c>
+      <c r="AF9" s="126">
+        <v>933.5</v>
+      </c>
+      <c r="AG9" s="126">
+        <v>923.8</v>
+      </c>
+      <c r="AH9" s="126">
+        <v>896.3</v>
+      </c>
+      <c r="AI9" s="126">
+        <v>925.3</v>
+      </c>
+      <c r="AJ9" s="126">
+        <v>876.7</v>
+      </c>
+      <c r="AK9" s="126">
+        <v>891.5</v>
+      </c>
+      <c r="AL9" s="126">
+        <v>874.3</v>
+      </c>
+      <c r="AM9" s="126">
+        <v>865.6</v>
+      </c>
+      <c r="AN9" s="126">
+        <v>859.4</v>
+      </c>
+      <c r="AO9" s="126">
+        <v>862.6</v>
+      </c>
+      <c r="AP9" s="126">
+        <v>819.8</v>
+      </c>
+      <c r="AQ9" s="126">
+        <v>819.4</v>
+      </c>
+      <c r="AR9" s="126">
+        <v>828.9</v>
+      </c>
+      <c r="AS9" s="126">
+        <v>783.4</v>
+      </c>
+      <c r="AT9" s="126">
+        <v>740.2</v>
+      </c>
+      <c r="AU9" s="126">
+        <v>731.9</v>
+      </c>
+      <c r="AV9" s="126">
+        <v>729.5</v>
+      </c>
+      <c r="AW9" s="126">
+        <v>688.4</v>
+      </c>
+      <c r="AX9" s="126">
+        <v>681.7</v>
+      </c>
+      <c r="AY9" s="126">
+        <v>658.3</v>
+      </c>
+      <c r="AZ9" s="126">
+        <v>677.3</v>
+      </c>
+      <c r="BA9" s="126">
+        <v>673.7</v>
+      </c>
+      <c r="BB9" s="126">
+        <v>651.79999999999995</v>
+      </c>
+      <c r="BC9" s="126">
+        <v>682.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="125" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="127">
+        <v>1276.8</v>
+      </c>
+      <c r="C10" s="127">
+        <v>1235</v>
+      </c>
+      <c r="D10" s="127">
+        <v>1257.5999999999999</v>
+      </c>
+      <c r="E10" s="127">
+        <v>1272.9000000000001</v>
+      </c>
+      <c r="F10" s="127">
+        <v>1230.9000000000001</v>
+      </c>
+      <c r="G10" s="127">
+        <v>1226.3</v>
+      </c>
+      <c r="H10" s="127">
+        <v>1224.5999999999999</v>
+      </c>
+      <c r="I10" s="127">
+        <v>1187.0999999999999</v>
+      </c>
+      <c r="J10" s="127">
+        <v>1211.5</v>
+      </c>
+      <c r="K10" s="127">
+        <v>1181.8</v>
+      </c>
+      <c r="L10" s="127">
+        <v>1144.5999999999999</v>
+      </c>
+      <c r="M10" s="127">
+        <v>1101</v>
+      </c>
+      <c r="N10" s="127">
+        <v>1101.5</v>
+      </c>
+      <c r="O10" s="127">
+        <v>1090.4000000000001</v>
+      </c>
+      <c r="P10" s="127">
+        <v>1044.7</v>
+      </c>
+      <c r="Q10" s="127">
+        <v>978.8</v>
+      </c>
+      <c r="R10" s="127">
+        <v>972.8</v>
+      </c>
+      <c r="S10" s="127">
+        <v>939.6</v>
+      </c>
+      <c r="T10" s="127">
+        <v>936.1</v>
+      </c>
+      <c r="U10" s="127">
+        <v>906</v>
+      </c>
+      <c r="V10" s="127">
+        <v>930.4</v>
+      </c>
+      <c r="W10" s="127">
+        <v>907.3</v>
+      </c>
+      <c r="X10" s="127">
+        <v>887.9</v>
+      </c>
+      <c r="Y10" s="127">
+        <v>908</v>
+      </c>
+      <c r="Z10" s="127">
+        <v>893.1</v>
+      </c>
+      <c r="AA10" s="127">
+        <v>898.5</v>
+      </c>
+      <c r="AB10" s="127">
+        <v>890.9</v>
+      </c>
+      <c r="AC10" s="127">
+        <v>885.6</v>
+      </c>
+      <c r="AD10" s="127">
+        <v>891.8</v>
+      </c>
+      <c r="AE10" s="127">
+        <v>868.7</v>
+      </c>
+      <c r="AF10" s="127">
+        <v>860.4</v>
+      </c>
+      <c r="AG10" s="127">
+        <v>849</v>
+      </c>
+      <c r="AH10" s="127">
+        <v>837</v>
+      </c>
+      <c r="AI10" s="127">
+        <v>859.2</v>
+      </c>
+      <c r="AJ10" s="127">
+        <v>851.8</v>
+      </c>
+      <c r="AK10" s="127">
+        <v>855.2</v>
+      </c>
+      <c r="AL10" s="127">
+        <v>850.1</v>
+      </c>
+      <c r="AM10" s="127">
+        <v>843</v>
+      </c>
+      <c r="AN10" s="127">
+        <v>838.6</v>
+      </c>
+      <c r="AO10" s="127">
+        <v>851.1</v>
+      </c>
+      <c r="AP10" s="127">
+        <v>824.2</v>
+      </c>
+      <c r="AQ10" s="127">
+        <v>815.4</v>
+      </c>
+      <c r="AR10" s="127">
+        <v>805.2</v>
+      </c>
+      <c r="AS10" s="127">
+        <v>773.5</v>
+      </c>
+      <c r="AT10" s="127">
+        <v>748.9</v>
+      </c>
+      <c r="AU10" s="127">
+        <v>736.2</v>
+      </c>
+      <c r="AV10" s="127">
+        <v>731.8</v>
+      </c>
+      <c r="AW10" s="127">
+        <v>711.3</v>
+      </c>
+      <c r="AX10" s="127">
+        <v>704.4</v>
+      </c>
+      <c r="AY10" s="127">
+        <v>703.9</v>
+      </c>
+      <c r="AZ10" s="127">
+        <v>711.5</v>
+      </c>
+      <c r="BA10" s="127">
+        <v>722.6</v>
+      </c>
+      <c r="BB10" s="127">
+        <v>716.8</v>
+      </c>
+      <c r="BC10" s="127">
+        <v>713.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A11" s="128" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="121"/>
+      <c r="P11" s="121"/>
+      <c r="Q11" s="121"/>
+      <c r="R11" s="121"/>
+      <c r="S11" s="121"/>
+      <c r="T11" s="121"/>
+      <c r="U11" s="121"/>
+      <c r="V11" s="121"/>
+      <c r="W11" s="121"/>
+      <c r="X11" s="121"/>
+      <c r="Y11" s="121"/>
+      <c r="Z11" s="121"/>
+      <c r="AA11" s="121"/>
+      <c r="AB11" s="121"/>
+      <c r="AC11" s="121"/>
+      <c r="AD11" s="121"/>
+      <c r="AE11" s="121"/>
+      <c r="AF11" s="121"/>
+      <c r="AG11" s="121"/>
+      <c r="AH11" s="121"/>
+      <c r="AI11" s="121"/>
+      <c r="AJ11" s="121"/>
+      <c r="AK11" s="121"/>
+      <c r="AL11" s="121"/>
+      <c r="AM11" s="121"/>
+      <c r="AN11" s="121"/>
+      <c r="AO11" s="121"/>
+      <c r="AP11" s="121"/>
+      <c r="AQ11" s="121"/>
+      <c r="AR11" s="121"/>
+      <c r="AS11" s="121"/>
+      <c r="AT11" s="121"/>
+      <c r="AU11" s="121"/>
+      <c r="AV11" s="121"/>
+      <c r="AW11" s="121"/>
+      <c r="AX11" s="121"/>
+      <c r="AY11" s="121"/>
+      <c r="AZ11" s="121"/>
+      <c r="BA11" s="121"/>
+      <c r="BB11" s="121"/>
+      <c r="BC11" s="121"/>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A12" s="129" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="121"/>
+      <c r="Q12" s="121"/>
+      <c r="R12" s="121"/>
+      <c r="S12" s="121"/>
+      <c r="T12" s="121"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="121"/>
+      <c r="X12" s="121"/>
+      <c r="Y12" s="121"/>
+      <c r="Z12" s="121"/>
+      <c r="AA12" s="121"/>
+      <c r="AB12" s="121"/>
+      <c r="AC12" s="121"/>
+      <c r="AD12" s="121"/>
+      <c r="AE12" s="121"/>
+      <c r="AF12" s="121"/>
+      <c r="AG12" s="121"/>
+      <c r="AH12" s="121"/>
+      <c r="AI12" s="121"/>
+      <c r="AJ12" s="121"/>
+      <c r="AK12" s="121"/>
+      <c r="AL12" s="121"/>
+      <c r="AM12" s="121"/>
+      <c r="AN12" s="121"/>
+      <c r="AO12" s="121"/>
+      <c r="AP12" s="121"/>
+      <c r="AQ12" s="121"/>
+      <c r="AR12" s="121"/>
+      <c r="AS12" s="121"/>
+      <c r="AT12" s="121"/>
+      <c r="AU12" s="121"/>
+      <c r="AV12" s="121"/>
+      <c r="AW12" s="121"/>
+      <c r="AX12" s="121"/>
+      <c r="AY12" s="121"/>
+      <c r="AZ12" s="121"/>
+      <c r="BA12" s="121"/>
+      <c r="BB12" s="121"/>
+      <c r="BC12" s="121"/>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A13" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="121"/>
+      <c r="Q13" s="121"/>
+      <c r="R13" s="121"/>
+      <c r="S13" s="121"/>
+      <c r="T13" s="121"/>
+      <c r="U13" s="121"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="121"/>
+      <c r="X13" s="121"/>
+      <c r="Y13" s="121"/>
+      <c r="Z13" s="121"/>
+      <c r="AA13" s="121"/>
+      <c r="AB13" s="121"/>
+      <c r="AC13" s="121"/>
+      <c r="AD13" s="121"/>
+      <c r="AE13" s="121"/>
+      <c r="AF13" s="121"/>
+      <c r="AG13" s="121"/>
+      <c r="AH13" s="121"/>
+      <c r="AI13" s="121"/>
+      <c r="AJ13" s="121"/>
+      <c r="AK13" s="121"/>
+      <c r="AL13" s="121"/>
+      <c r="AM13" s="121"/>
+      <c r="AN13" s="121"/>
+      <c r="AO13" s="121"/>
+      <c r="AP13" s="121"/>
+      <c r="AQ13" s="121"/>
+      <c r="AR13" s="121"/>
+      <c r="AS13" s="121"/>
+      <c r="AT13" s="121"/>
+      <c r="AU13" s="121"/>
+      <c r="AV13" s="121"/>
+      <c r="AW13" s="121"/>
+      <c r="AX13" s="121"/>
+      <c r="AY13" s="121"/>
+      <c r="AZ13" s="121"/>
+      <c r="BA13" s="121"/>
+      <c r="BB13" s="121"/>
+      <c r="BC13" s="121"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:BC3"/>
+    <mergeCell ref="B4:BC4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=HEALTH_STAT&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=HEALTH_STAT&amp;Coords=[VAR].[CICDALLC]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
+    <hyperlink ref="A11" r:id="rId3" display="https://stats-1.oecd.org/index.aspx?DatasetCode=HEALTH_STAT" xr:uid="{00000000-0004-0000-0D00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId4"/>
